--- a/new_modules/Summary_2022-08-28_L1C.xlsx
+++ b/new_modules/Summary_2022-08-28_L1C.xlsx
@@ -441,19 +441,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0273</v>
+        <v>0.166</v>
       </c>
       <c r="C2">
-        <v>0.0273</v>
+        <v>0.166</v>
       </c>
       <c r="D2">
-        <v>0.012</v>
+        <v>0.1360999941825867</v>
       </c>
       <c r="E2">
-        <v>0.1726</v>
+        <v>0.3133000135421753</v>
       </c>
       <c r="F2">
-        <v>-0.152</v>
+        <v>0.07240000367164612</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,19 +461,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0385</v>
+        <v>0.191</v>
       </c>
       <c r="C3">
-        <v>0.0385</v>
+        <v>0.191</v>
       </c>
       <c r="D3">
-        <v>0.0362</v>
+        <v>0.1895</v>
       </c>
       <c r="E3">
-        <v>0.2184</v>
+        <v>0.3319000005722046</v>
       </c>
       <c r="F3">
-        <v>-0.3948</v>
+        <v>0.02989999949932098</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,19 +481,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0358</v>
+        <v>0.2015</v>
       </c>
       <c r="C4">
-        <v>0.0358</v>
+        <v>0.2015</v>
       </c>
       <c r="D4">
-        <v>0.0418</v>
+        <v>0.2038</v>
       </c>
       <c r="E4">
-        <v>0.162</v>
+        <v>0.3206000030040741</v>
       </c>
       <c r="F4">
-        <v>-0.1281</v>
+        <v>0.08630000054836273</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0162</v>
+        <v>0.203</v>
       </c>
       <c r="C5">
-        <v>0.0162</v>
+        <v>0.203</v>
       </c>
       <c r="D5">
-        <v>0.0213</v>
+        <v>0.1985</v>
       </c>
       <c r="E5">
-        <v>0.1334</v>
+        <v>0.3817000091075897</v>
       </c>
       <c r="F5">
-        <v>-0.1454</v>
+        <v>0.1147999987006187</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -521,19 +521,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.099</v>
+        <v>0.2479</v>
       </c>
       <c r="C6">
-        <v>-0.099</v>
+        <v>0.2479</v>
       </c>
       <c r="D6">
-        <v>-0.1085</v>
+        <v>0.2489</v>
       </c>
       <c r="E6">
-        <v>0.079</v>
+        <v>0.3650999963283539</v>
       </c>
       <c r="F6">
-        <v>-0.2397</v>
+        <v>0.1693000048398972</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -541,19 +541,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1101</v>
+        <v>0.2412</v>
       </c>
       <c r="C7">
-        <v>-0.1101</v>
+        <v>0.2412</v>
       </c>
       <c r="D7">
-        <v>-0.1235</v>
+        <v>0.2449000030755997</v>
       </c>
       <c r="E7">
-        <v>0.1082</v>
+        <v>0.2994000017642975</v>
       </c>
       <c r="F7">
-        <v>-0.2384</v>
+        <v>0.1401000022888184</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -561,19 +561,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0389</v>
+        <v>0.1723</v>
       </c>
       <c r="C8">
-        <v>0.0389</v>
+        <v>0.1723</v>
       </c>
       <c r="D8">
-        <v>0.0453</v>
+        <v>0.1706</v>
       </c>
       <c r="E8">
-        <v>0.1474</v>
+        <v>0.238999992609024</v>
       </c>
       <c r="F8">
-        <v>-0.1569</v>
+        <v>0.1009000018239021</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-28_L1C.xlsx
+++ b/new_modules/Summary_2022-08-28_L1C.xlsx
@@ -441,19 +441,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.166</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="C2">
-        <v>0.166</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="D2">
-        <v>0.1360999941825867</v>
+        <v>0.08250000327825546</v>
       </c>
       <c r="E2">
-        <v>0.3133000135421753</v>
+        <v>0.253600001335144</v>
       </c>
       <c r="F2">
-        <v>0.07240000367164612</v>
+        <v>-0.1174999997019768</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,19 +461,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.191</v>
+        <v>0.0564</v>
       </c>
       <c r="C3">
-        <v>0.191</v>
+        <v>0.0564</v>
       </c>
       <c r="D3">
-        <v>0.1895</v>
+        <v>0.0443</v>
       </c>
       <c r="E3">
-        <v>0.3319000005722046</v>
+        <v>0.375</v>
       </c>
       <c r="F3">
-        <v>0.02989999949932098</v>
+        <v>-0.1174999997019768</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,19 +481,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2015</v>
+        <v>0.0275</v>
       </c>
       <c r="C4">
-        <v>0.2015</v>
+        <v>0.0275</v>
       </c>
       <c r="D4">
-        <v>0.2038</v>
+        <v>0.0164</v>
       </c>
       <c r="E4">
-        <v>0.3206000030040741</v>
+        <v>0.3034000098705292</v>
       </c>
       <c r="F4">
-        <v>0.08630000054836273</v>
+        <v>-0.09839999675750732</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.203</v>
+        <v>-0.0046</v>
       </c>
       <c r="C5">
-        <v>0.203</v>
+        <v>-0.0046</v>
       </c>
       <c r="D5">
-        <v>0.1985</v>
+        <v>-0.0071</v>
       </c>
       <c r="E5">
-        <v>0.3817000091075897</v>
+        <v>0.1934999972581863</v>
       </c>
       <c r="F5">
-        <v>0.1147999987006187</v>
+        <v>-0.1596000045537949</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -521,19 +521,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2479</v>
+        <v>-0.08740000000000001</v>
       </c>
       <c r="C6">
-        <v>0.2479</v>
+        <v>-0.08740000000000001</v>
       </c>
       <c r="D6">
-        <v>0.2489</v>
+        <v>-0.0935</v>
       </c>
       <c r="E6">
-        <v>0.3650999963283539</v>
+        <v>0.1673000007867813</v>
       </c>
       <c r="F6">
-        <v>0.1693000048398972</v>
+        <v>-0.2207999974489212</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -541,19 +541,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2412</v>
+        <v>-0.0818</v>
       </c>
       <c r="C7">
-        <v>0.2412</v>
+        <v>-0.0818</v>
       </c>
       <c r="D7">
-        <v>0.2449000030755997</v>
+        <v>-0.08470000326633453</v>
       </c>
       <c r="E7">
-        <v>0.2994000017642975</v>
+        <v>0.07649999856948853</v>
       </c>
       <c r="F7">
-        <v>0.1401000022888184</v>
+        <v>-0.1918999999761581</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -561,19 +561,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1723</v>
+        <v>0.0634</v>
       </c>
       <c r="C8">
-        <v>0.1723</v>
+        <v>0.0634</v>
       </c>
       <c r="D8">
-        <v>0.1706</v>
+        <v>0.0596</v>
       </c>
       <c r="E8">
-        <v>0.238999992609024</v>
+        <v>0.1852999925613403</v>
       </c>
       <c r="F8">
-        <v>0.1009000018239021</v>
+        <v>-0.07819999754428864</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-28_L1C.xlsx
+++ b/new_modules/Summary_2022-08-28_L1C.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Загон</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>№7</t>
+  </si>
+  <si>
+    <t>Пастбище</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.06950000000000001</v>
+        <v>92.60959625244141</v>
       </c>
       <c r="C2">
         <v>0.06950000000000001</v>
@@ -461,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0564</v>
+        <v>70.54509735107422</v>
       </c>
       <c r="C3">
         <v>0.0564</v>
@@ -481,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0275</v>
+        <v>23.50209999084473</v>
       </c>
       <c r="C4">
         <v>0.0275</v>
@@ -501,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.0046</v>
+        <v>-4.403299808502197</v>
       </c>
       <c r="C5">
         <v>-0.0046</v>
@@ -521,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.08740000000000001</v>
+        <v>-110.4229965209961</v>
       </c>
       <c r="C6">
         <v>-0.08740000000000001</v>
@@ -541,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0818</v>
+        <v>-81.25930023193359</v>
       </c>
       <c r="C7">
         <v>-0.0818</v>
@@ -561,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0634</v>
+        <v>70.74289703369141</v>
       </c>
       <c r="C8">
         <v>0.0634</v>
@@ -574,6 +577,26 @@
       </c>
       <c r="F8">
         <v>-0.07819999754428864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>61.31409454345703</v>
+      </c>
+      <c r="C9">
+        <v>0.0083</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.375</v>
+      </c>
+      <c r="F9">
+        <v>-0.2207999974489212</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-28_L1C.xlsx
+++ b/new_modules/Summary_2022-08-28_L1C.xlsx
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>92.60959625244141</v>
+        <v>155.4430999755859</v>
       </c>
       <c r="C2">
-        <v>0.06950000000000001</v>
+        <v>0.1166</v>
       </c>
       <c r="D2">
-        <v>0.08250000327825546</v>
+        <v>0.1385000050067902</v>
       </c>
       <c r="E2">
-        <v>0.253600001335144</v>
+        <v>0.4257000088691711</v>
       </c>
       <c r="F2">
-        <v>-0.1174999997019768</v>
+        <v>-0.1972000002861023</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>70.54509735107422</v>
+        <v>118.408203125</v>
       </c>
       <c r="C3">
-        <v>0.0564</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="D3">
-        <v>0.0443</v>
+        <v>0.0743</v>
       </c>
       <c r="E3">
-        <v>0.375</v>
+        <v>0.6294000148773193</v>
       </c>
       <c r="F3">
-        <v>-0.1174999997019768</v>
+        <v>-0.1972000002861023</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>23.50209999084473</v>
+        <v>39.44770050048828</v>
       </c>
       <c r="C4">
+        <v>0.0461</v>
+      </c>
+      <c r="D4">
         <v>0.0275</v>
       </c>
-      <c r="D4">
-        <v>0.0164</v>
-      </c>
       <c r="E4">
-        <v>0.3034000098705292</v>
+        <v>0.5091999769210815</v>
       </c>
       <c r="F4">
-        <v>-0.09839999675750732</v>
+        <v>-0.1650999933481216</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-4.403299808502197</v>
+        <v>-7.390900135040283</v>
       </c>
       <c r="C5">
-        <v>-0.0046</v>
+        <v>-0.0078</v>
       </c>
       <c r="D5">
-        <v>-0.0071</v>
+        <v>-0.0119</v>
       </c>
       <c r="E5">
-        <v>0.1934999972581863</v>
+        <v>0.3248000144958496</v>
       </c>
       <c r="F5">
-        <v>-0.1596000045537949</v>
+        <v>-0.2678999900817871</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,19 +524,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-110.4229965209961</v>
+        <v>-185.3421936035156</v>
       </c>
       <c r="C6">
-        <v>-0.08740000000000001</v>
+        <v>-0.1466</v>
       </c>
       <c r="D6">
-        <v>-0.0935</v>
+        <v>-0.1569</v>
       </c>
       <c r="E6">
-        <v>0.1673000007867813</v>
+        <v>0.2806999981403351</v>
       </c>
       <c r="F6">
-        <v>-0.2207999974489212</v>
+        <v>-0.3705999851226807</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-81.25930023193359</v>
+        <v>-136.3917999267578</v>
       </c>
       <c r="C7">
-        <v>-0.0818</v>
+        <v>-0.1374</v>
       </c>
       <c r="D7">
-        <v>-0.08470000326633453</v>
+        <v>-0.1421999931335449</v>
       </c>
       <c r="E7">
-        <v>0.07649999856948853</v>
+        <v>0.1283999979496002</v>
       </c>
       <c r="F7">
-        <v>-0.1918999999761581</v>
+        <v>-0.3219999969005585</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,19 +564,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>70.74289703369141</v>
+        <v>118.7403030395508</v>
       </c>
       <c r="C8">
-        <v>0.0634</v>
+        <v>0.1064</v>
       </c>
       <c r="D8">
-        <v>0.0596</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
-        <v>0.1852999925613403</v>
+        <v>0.3109999895095825</v>
       </c>
       <c r="F8">
-        <v>-0.07819999754428864</v>
+        <v>-0.1312000006437302</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,19 +584,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>61.31409454345703</v>
+        <v>102.914421081543</v>
       </c>
       <c r="C9">
-        <v>0.0083</v>
+        <v>0.0139</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.375</v>
+        <v>0.6294000148773193</v>
       </c>
       <c r="F9">
-        <v>-0.2207999974489212</v>
+        <v>-0.3705999851226807</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-28_L1C.xlsx
+++ b/new_modules/Summary_2022-08-28_L1C.xlsx
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>155.4430999755859</v>
+        <v>581.1033935546875</v>
       </c>
       <c r="C2">
-        <v>0.1166</v>
+        <v>0.4359</v>
       </c>
       <c r="D2">
-        <v>0.1385000050067902</v>
+        <v>0.3576000034809113</v>
       </c>
       <c r="E2">
-        <v>0.4257000088691711</v>
+        <v>0.8565999865531921</v>
       </c>
       <c r="F2">
-        <v>-0.1972000002861023</v>
+        <v>0.1406999975442886</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>118.408203125</v>
+        <v>652.0631103515625</v>
       </c>
       <c r="C3">
-        <v>0.09470000000000001</v>
+        <v>0.5217000000000001</v>
       </c>
       <c r="D3">
-        <v>0.0743</v>
+        <v>0.5293</v>
       </c>
       <c r="E3">
-        <v>0.6294000148773193</v>
+        <v>0.885200023651123</v>
       </c>
       <c r="F3">
-        <v>-0.1972000002861023</v>
+        <v>0.006099999882280827</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>39.44770050048828</v>
+        <v>487.3305969238281</v>
       </c>
       <c r="C4">
-        <v>0.0461</v>
+        <v>0.5693</v>
       </c>
       <c r="D4">
-        <v>0.0275</v>
+        <v>0.5648</v>
       </c>
       <c r="E4">
-        <v>0.5091999769210815</v>
+        <v>0.883899986743927</v>
       </c>
       <c r="F4">
-        <v>-0.1650999933481216</v>
+        <v>0.1474999934434891</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-7.390900135040283</v>
+        <v>547.4152221679688</v>
       </c>
       <c r="C5">
-        <v>-0.0078</v>
+        <v>0.5774</v>
       </c>
       <c r="D5">
-        <v>-0.0119</v>
+        <v>0.5696</v>
       </c>
       <c r="E5">
-        <v>0.3248000144958496</v>
+        <v>0.883899986743927</v>
       </c>
       <c r="F5">
-        <v>-0.2678999900817871</v>
+        <v>0.3251999914646149</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,19 +524,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-185.3421936035156</v>
+        <v>848.9979858398438</v>
       </c>
       <c r="C6">
-        <v>-0.1466</v>
+        <v>0.6717</v>
       </c>
       <c r="D6">
-        <v>-0.1569</v>
+        <v>0.665</v>
       </c>
       <c r="E6">
-        <v>0.2806999981403351</v>
+        <v>0.8891000151634216</v>
       </c>
       <c r="F6">
-        <v>-0.3705999851226807</v>
+        <v>0.3393999934196472</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-136.3917999267578</v>
+        <v>640.3237915039062</v>
       </c>
       <c r="C7">
-        <v>-0.1374</v>
+        <v>0.6448</v>
       </c>
       <c r="D7">
-        <v>-0.1421999931335449</v>
+        <v>0.6513000130653381</v>
       </c>
       <c r="E7">
-        <v>0.1283999979496002</v>
+        <v>0.8349000215530396</v>
       </c>
       <c r="F7">
-        <v>-0.3219999969005585</v>
+        <v>0.4289000034332275</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,19 +564,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>118.7403030395508</v>
+        <v>503.1402893066406</v>
       </c>
       <c r="C8">
-        <v>0.1064</v>
+        <v>0.4508</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.4434</v>
       </c>
       <c r="E8">
-        <v>0.3109999895095825</v>
+        <v>0.6593999862670898</v>
       </c>
       <c r="F8">
-        <v>-0.1312000006437302</v>
+        <v>0.3169000148773193</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,19 +584,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>102.914421081543</v>
+        <v>4260.37451171875</v>
       </c>
       <c r="C9">
-        <v>0.0139</v>
+        <v>0.5486</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.5715</v>
       </c>
       <c r="E9">
-        <v>0.6294000148773193</v>
+        <v>0.8891000151634216</v>
       </c>
       <c r="F9">
-        <v>-0.3705999851226807</v>
+        <v>0.006099999882280827</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-28_L1C.xlsx
+++ b/new_modules/Summary_2022-08-28_L1C.xlsx
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>581.1033935546875</v>
+        <v>525.597900390625</v>
       </c>
       <c r="C2">
-        <v>0.4359</v>
+        <v>0.3943</v>
       </c>
       <c r="D2">
-        <v>0.3576000034809113</v>
+        <v>0.416700005531311</v>
       </c>
       <c r="E2">
-        <v>0.8565999865531921</v>
+        <v>0.8658999800682068</v>
       </c>
       <c r="F2">
-        <v>0.1406999975442886</v>
+        <v>-0.2581999897956848</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>652.0631103515625</v>
+        <v>653.2199096679688</v>
       </c>
       <c r="C3">
-        <v>0.5217000000000001</v>
+        <v>0.5226</v>
       </c>
       <c r="D3">
-        <v>0.5293</v>
+        <v>0.4891</v>
       </c>
       <c r="E3">
-        <v>0.885200023651123</v>
+        <v>1.247699975967407</v>
       </c>
       <c r="F3">
-        <v>0.006099999882280827</v>
+        <v>-0.782800018787384</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>487.3305969238281</v>
+        <v>439.3471069335938</v>
       </c>
       <c r="C4">
-        <v>0.5693</v>
+        <v>0.5133</v>
       </c>
       <c r="D4">
-        <v>0.5648</v>
+        <v>0.5084</v>
       </c>
       <c r="E4">
-        <v>0.883899986743927</v>
+        <v>1.112300038337708</v>
       </c>
       <c r="F4">
-        <v>0.1474999934434891</v>
+        <v>-0.04100000113248825</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>547.4152221679688</v>
+        <v>335.1441955566406</v>
       </c>
       <c r="C5">
-        <v>0.5774</v>
+        <v>0.3535</v>
       </c>
       <c r="D5">
-        <v>0.5696</v>
+        <v>0.3634</v>
       </c>
       <c r="E5">
-        <v>0.883899986743927</v>
+        <v>0.8044999837875366</v>
       </c>
       <c r="F5">
-        <v>0.3251999914646149</v>
+        <v>-0.1568000018596649</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,19 +524,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>848.9979858398438</v>
+        <v>-47.85419845581055</v>
       </c>
       <c r="C6">
-        <v>0.6717</v>
+        <v>-0.0379</v>
       </c>
       <c r="D6">
-        <v>0.665</v>
+        <v>-0.0568</v>
       </c>
       <c r="E6">
-        <v>0.8891000151634216</v>
+        <v>0.5584999918937683</v>
       </c>
       <c r="F6">
-        <v>0.3393999934196472</v>
+        <v>-0.5716000199317932</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>640.3237915039062</v>
+        <v>-62.73690032958984</v>
       </c>
       <c r="C7">
-        <v>0.6448</v>
+        <v>-0.06320000000000001</v>
       </c>
       <c r="D7">
-        <v>0.6513000130653381</v>
+        <v>-0.0812000036239624</v>
       </c>
       <c r="E7">
-        <v>0.8349000215530396</v>
+        <v>0.5591999888420105</v>
       </c>
       <c r="F7">
-        <v>0.4289000034332275</v>
+        <v>-0.5031999945640564</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,19 +564,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>503.1402893066406</v>
+        <v>513.798583984375</v>
       </c>
       <c r="C8">
-        <v>0.4508</v>
+        <v>0.4604</v>
       </c>
       <c r="D8">
-        <v>0.4434</v>
+        <v>0.4502</v>
       </c>
       <c r="E8">
-        <v>0.6593999862670898</v>
+        <v>0.8956000208854675</v>
       </c>
       <c r="F8">
-        <v>0.3169000148773193</v>
+        <v>-0.1708000004291534</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,19 +584,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>4260.37451171875</v>
+        <v>2356.5166015625</v>
       </c>
       <c r="C9">
-        <v>0.5486</v>
+        <v>0.305</v>
       </c>
       <c r="D9">
-        <v>0.5715</v>
+        <v>0.3466</v>
       </c>
       <c r="E9">
-        <v>0.8891000151634216</v>
+        <v>1.247699975967407</v>
       </c>
       <c r="F9">
-        <v>0.006099999882280827</v>
+        <v>-0.782800018787384</v>
       </c>
     </row>
   </sheetData>
